--- a/proveedor/drimel/listos/tiendaNube/drimel.xlsx
+++ b/proveedor/drimel/listos/tiendaNube/drimel.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,126 +461,126 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>DONCELLA-HISOPOSx100</t>
+          <t>PAMPERS-CONFORT-XTR-MES-Gx72</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>407</v>
+        <v>4195</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>456</v>
+        <v>4698</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>ESTRELLA-SHAMPOO-CLAROSx200</t>
+          <t>CARICIA-PANAL-XXGx22</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>496</v>
+        <v>1125</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>556</v>
+        <v>1260</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>ESTRELLA-SHAMPOO-EQULIBRIOx200</t>
+          <t>PAMPERS-PREMIUM-XTR-MES-Gx72</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>496</v>
+        <v>4662</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>556</v>
+        <v>5221</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>ESTRELLA-ACONDICIONADOR-SUAVESx200</t>
+          <t>HUGGIES-FLEXI-COMFORT-RNx17</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>496</v>
+        <v>922</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>556</v>
+        <v>1033</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>ESTRELLA-ACONDICIONADOR-EQUILIBRIOx200</t>
+          <t>HUGGIES-FLEXI-COMFORT-Px30</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>496</v>
+        <v>1652</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>556</v>
+        <v>1850</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>ESTRELLA-JABON-BABY-GLICERINAx60</t>
+          <t>HUGGIES-FLEXI-COMFORT-RNx34</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>186</v>
+        <v>1652</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>208</v>
+        <v>1850</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>ESTRELLA-JABON-BABY-SUAVIDADx60</t>
+          <t>HUGGIES-TOALLA-4en1-x80</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>186</v>
+        <v>724</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>208</v>
+        <v>811</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>ESTRELLA-ACONDICIONADOR-SUAVESx400</t>
+          <t>DONCELLA-HISOPOSx100</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>768</v>
+        <v>407</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>860</v>
+        <v>456</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>5</v>
@@ -589,14 +589,14 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>ESTRELLA-ACONDICIONADOR-CLAROSx400</t>
+          <t>HUGGIES-PROTECT-REG-XGx8</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>768</v>
+        <v>474</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>860</v>
+        <v>531</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>5</v>
@@ -605,14 +605,14 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>ESTRELLA-ACONDICIONADOR-EQUILIBRIOx400</t>
+          <t>HUGGIES-PROTECT-REG-Px8</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>768</v>
+        <v>474</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>860</v>
+        <v>531</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>5</v>
@@ -621,14 +621,14 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>ESTRELLA-SHAMPOO-CLAROSx400</t>
+          <t>HUGGIES-PROTECT-REG-Mx8</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>768</v>
+        <v>474</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>860</v>
+        <v>531</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>5</v>
@@ -637,14 +637,14 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>ESTRELLA-SHAMPOO-EQUILIBRIOx400</t>
+          <t>HUGGIES-PROTECT-REG-Gx8</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>768</v>
+        <v>474</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>860</v>
+        <v>531</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>5</v>
@@ -653,14 +653,14 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>ESTRELLA-OLEO-ALGODONx950</t>
+          <t>HUGGIES-PROTECT-REG-XXGx8</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1482</v>
+        <v>474</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>1660</v>
+        <v>531</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>5</v>
@@ -669,14 +669,14 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>ESTRELLA-OLEO-MANZANILLAx250</t>
+          <t>ESTRELLA-SHAMPOO-EQULIBRIOx200</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>672</v>
+        <v>496</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>753</v>
+        <v>556</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>5</v>
@@ -685,14 +685,14 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>ESTRELLA-HISOPOSx100</t>
+          <t>ESTRELLA-SHAMPOO-CLAROSx200</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>420</v>
+        <v>496</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>470</v>
+        <v>556</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>5</v>
@@ -701,14 +701,14 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>ESTRELLA-PA-OS-MAXI-ALGODONx50</t>
+          <t>ESTRELLA-ACONDICIONADOR-SUAVESx200</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>823</v>
+        <v>496</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>922</v>
+        <v>556</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>5</v>
@@ -717,14 +717,14 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>ESTRELLA-POMPONES-x50</t>
+          <t>ESTRELLA-ACONDICIONADOR-EQUILIBRIOx200</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>380</v>
+        <v>496</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>426</v>
+        <v>556</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>5</v>
@@ -733,14 +733,14 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>ESTRELLA-OLEO-ALGODONx500</t>
+          <t>ESTRELLA-JABON-BABY-GLICERINAx60</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>889</v>
+        <v>186</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>996</v>
+        <v>208</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>5</v>
@@ -749,14 +749,14 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>ESTRELLA-HISOPOS-BOLSAx125</t>
+          <t>ESTRELLA-JABON-BABY-SUAVIDADx60</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>387</v>
+        <v>186</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>433</v>
+        <v>208</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>5</v>
@@ -765,144 +765,1328 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>ESTRELLA-PA-AL-MEGA-Px30</t>
+          <t>ESTRELLA-ACONDICIONADOR-CLAROSx400</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1335</v>
+        <v>768</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>1495</v>
+        <v>860</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>ESTRELLA-PA-AL-HIPER-XXGx34</t>
+          <t>ESTRELLA-ACONDICIONADOR-SUAVESx400</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>2302</v>
+        <v>768</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>2578</v>
+        <v>860</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>ESTRELLA-PA-AL-HIPER-Gx40</t>
+          <t>ESTRELLA-SHAMPOO-CLAROSx400</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>2302</v>
+        <v>768</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>2578</v>
+        <v>860</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>ESTRELLA-PA-AL-HIPER-XGx36</t>
+          <t>ESTRELLA-SHAMPOO-EQUILIBRIOx400</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>2302</v>
+        <v>768</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>2578</v>
+        <v>860</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>ESTRELLA-PA-AL-HIPER-Mx44</t>
+          <t>ESTRELLA-ACONDICIONADOR-EQUILIBRIOx400</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>2302</v>
+        <v>768</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>2578</v>
+        <v>860</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>ESTRELLA-PA-AL-SUPER-XXGx56</t>
+          <t>PAMPERS-CONFORT-XTR-HIPER-XGx36</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>3763</v>
+        <v>2938</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>4215</v>
+        <v>3291</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>ESTRELLA-PA-AL-SUPER-XGx58</t>
+          <t>ESTRELLA-OLEO-ALGODONx950</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>3763</v>
+        <v>1482</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>4215</v>
+        <v>1660</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>ESTRELLA-PA-AL-SUPER-Gx68</t>
+          <t>PAMPERS-SUPER-XTR-ULTRA-XXGx30</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>3763</v>
+        <v>1777</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>4215</v>
+        <v>1990</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
+          <t>PAMPERS-CONFORT-XTR-MES-XGx58</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>4195</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>4698</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS-PREMIUM-XTR-MES-XXGx54</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>4662</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>5221</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-OLEO-MANZANILLAx250</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>672</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>753</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-HISOPOSx100</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>420</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>470</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-TOALLA-TRIPLE-PROTECCIONx96</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>652</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>730</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-FLEXI-COMFORT-Px50</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>1874</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>2099</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-PA-OS-MAXI-ALGODONx50</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>823</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>922</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-POMPONES-x50</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>380</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>426</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-OLEO-ALGODONx500</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>889</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>996</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-FLEXI-COMFORT-AHORRO-XXGx50</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>3603</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>4035</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-FLEXI-COMFORT-Mx68</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>3603</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>4035</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-FLEXI-COMFORT-Gx60</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>3603</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>4035</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-FLEXI-COMFORT-XGx52</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>3603</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>4035</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-FLEXI-COMFORT-AHORRO-XXXGx48</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>3603</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>4035</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-CLASSIC-REG-Mx8</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>494</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>553</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-CLASSIC-REG-XXGx8</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>494</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>553</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-CLASSIC-REG-Px8</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>494</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>553</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-CLASSIC-REG-Gx8</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>494</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>553</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-HISOPOS-BOLSAx125</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>387</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>433</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-TOALLA-OLEO-RNx48</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>710</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>795</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-TOALLA-OLEO-RNx80</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>1077</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>1206</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-TOALLA-TRIPLE-PROTECCIONx48</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>369</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>413</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-TOALLA-FROZENx48</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>441</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>494</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-SUPREME-XXGx50</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>4166</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>4666</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-SUPREME-Mx68</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>4166</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>4666</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-SUPREME-XGx52</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>4166</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>4666</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-SUPREME-Gx60</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>4166</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>4666</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-SUPREME-XXXG-x48</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>4166</v>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>4666</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>KIMBIES-TOALLAS-HUMEDASx48</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>336</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-PROTECT-Px50</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>1613</v>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>1807</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-PLUS-PROTECT-Gx40</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>2182</v>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>2444</v>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-PLUS-PROTECT-XGx32</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>2182</v>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>2444</v>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-PROTECT-Px30</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>1033</v>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>1157</v>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-TOALLA-TRIPLE-PROTECCIONx80</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>554</v>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>620</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-CLASSIC-AHORRO-Gx60</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>3034</v>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>3398</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-CLASSIC-AHORRO-XXGx50</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>3034</v>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>3398</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-CLASSIC-AHORRO-XGx52</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>3034</v>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>3398</v>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-CLASSIC-AHORRO-Mx68</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>3034</v>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>3398</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-PA-AL-MEGA-Px30</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>1335</v>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>1495</v>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>PAMPERS-TOTAL-PROTECT-Gx44</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>2070</v>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>2318</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-PROTECT-AHORRO-Mx68</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>3123</v>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>3498</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-PROTECT-AHORRO-Gx60</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>3123</v>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>3498</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-PROTECT-AHORRO-XGx52</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>3123</v>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>3498</v>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-PROTECT-AHORRO-XXGx50</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>3123</v>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>3498</v>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-PROTECT-AHORRO-XXXGx48</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>3123</v>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>3498</v>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-SUPREME-PREMATUROSx30</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>1440</v>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>1613</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-SUPREME-Px30</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>2117</v>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>2371</v>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-SUPREME-RNx34</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>2117</v>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>2371</v>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-PA-AL-HIPER-Mx44</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>2302</v>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>2578</v>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-PA-AL-HIPER-XXGx34</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>2302</v>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>2578</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-PA-AL-HIPER-XGx36</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>2302</v>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>2578</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-PA-AL-HIPER-Gx40</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>2302</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>2578</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-PA-AL-SUPER-Gx68</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>3763</v>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>4215</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
           <t>ESTRELLA-PA-AL-SUPER-JUNIORx50</t>
         </is>
       </c>
-      <c r="B29" s="2" t="n">
+      <c r="B82" s="2" t="n">
         <v>3763</v>
       </c>
-      <c r="C29" s="2" t="n">
+      <c r="C82" s="2" t="n">
         <v>4215</v>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D82" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-PA-AL-SUPER-XXGx56</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>3763</v>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>4215</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>ESTRELLA-PA-AL-SUPER-XGx58</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>3763</v>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>4215</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-SUPREME-Px17</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>1181</v>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>1323</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-SUPREME-RNx17</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>1181</v>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>1323</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-ULTRA-JUMBO-Mx68</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>2668</v>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>2988</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-ULTRA-JUMBO-Gx60</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>2668</v>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>2988</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-ULTRA-JUMBO-XGx52</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>2668</v>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>2988</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-ULTRA-JUMBO-XXGx50</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>2668</v>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>2988</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>HUGGIES-SUPREME-Px50</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>2375</v>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>2660</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-ULTRA-REGULAR-XXGx8</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>416</v>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>466</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-ULTRA-REGULAR-Px12</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>416</v>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>466</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-ULTRA-REGULAR-Gx8</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>416</v>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>466</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-ULTRA-REGULAR-XGx8</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>416</v>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>466</v>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-ULTRA-REGULAR-Mx8</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>416</v>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>466</v>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-PREMIUM-HIPER-Gx40</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>2157</v>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>2416</v>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-PREMIUM-HIPER-Mx48</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>2157</v>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>2416</v>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-PREMIUM-HIPER-XXGx30</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>2157</v>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>2416</v>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-PREMIUM-HIPER-XGx32</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>2157</v>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>2416</v>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-PREMIUM-JUMBO-Gx60</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>3138</v>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>3515</v>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-PREMIUM-JUMBO-XXGx44</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>3138</v>
+      </c>
+      <c r="C102" s="2" t="n">
+        <v>3515</v>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>BABYSEC-PREMIUM-JUMBO-XGx48</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>3138</v>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>3515</v>
+      </c>
+      <c r="D103" s="2" t="n">
         <v>2</v>
       </c>
     </row>

--- a/proveedor/drimel/listos/tiendaNube/drimel.xlsx
+++ b/proveedor/drimel/listos/tiendaNube/drimel.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,7 +430,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="39" customWidth="1" min="1" max="1"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="22" customWidth="1" min="4" max="4"/>
@@ -461,449 +461,17 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>DONCELLA-HISOPOSx100</t>
+          <t>HUGGIES-TOALLA-PUROx48</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>407</v>
+        <v>887</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>456</v>
+        <v>993</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>ESTRELLA-SHAMPOO-CLAROSx200</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>496</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>556</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>ESTRELLA-SHAMPOO-EQULIBRIOx200</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>496</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>556</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>ESTRELLA-ACONDICIONADOR-SUAVESx200</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>496</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>556</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>ESTRELLA-ACONDICIONADOR-EQUILIBRIOx200</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>496</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>556</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>ESTRELLA-JABON-BABY-GLICERINAx60</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>186</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>208</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>ESTRELLA-JABON-BABY-SUAVIDADx60</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>186</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>208</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>ESTRELLA-ACONDICIONADOR-SUAVESx400</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>768</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>860</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>ESTRELLA-ACONDICIONADOR-CLAROSx400</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>768</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>860</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>ESTRELLA-ACONDICIONADOR-EQUILIBRIOx400</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>768</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>860</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>ESTRELLA-SHAMPOO-CLAROSx400</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>768</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>860</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>ESTRELLA-SHAMPOO-EQUILIBRIOx400</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>768</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>860</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>ESTRELLA-OLEO-ALGODONx950</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>1482</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>1660</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>ESTRELLA-OLEO-MANZANILLAx250</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>672</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>753</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>ESTRELLA-HISOPOSx100</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>420</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>470</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>ESTRELLA-PA-OS-MAXI-ALGODONx50</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>823</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>922</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>ESTRELLA-POMPONES-x50</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>380</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>426</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>ESTRELLA-OLEO-ALGODONx500</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>889</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>996</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>ESTRELLA-HISOPOS-BOLSAx125</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="n">
-        <v>387</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>433</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>ESTRELLA-PA-AL-MEGA-Px30</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>1335</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>1495</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>ESTRELLA-PA-AL-HIPER-XXGx34</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="n">
-        <v>2302</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>2578</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>ESTRELLA-PA-AL-HIPER-Gx40</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>2302</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>2578</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>ESTRELLA-PA-AL-HIPER-XGx36</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="n">
-        <v>2302</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>2578</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>ESTRELLA-PA-AL-HIPER-Mx44</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>2302</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>2578</v>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>ESTRELLA-PA-AL-SUPER-XXGx56</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="n">
-        <v>3763</v>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>4215</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="inlineStr">
-        <is>
-          <t>ESTRELLA-PA-AL-SUPER-XGx58</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="n">
-        <v>3763</v>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>4215</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>ESTRELLA-PA-AL-SUPER-Gx68</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="n">
-        <v>3763</v>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>4215</v>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>ESTRELLA-PA-AL-SUPER-JUNIORx50</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="n">
-        <v>3763</v>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>4215</v>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
